--- a/заказы/статистика филиалы/2023/11,23/01,11,23 КИ/дв 01,11,23 днрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/01,11,23 КИ/дв 01,11,23 днрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\01,11,23 филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\01,11,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A21ACB-AAF5-44B6-8918-53F20DFF5868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D54D3B-D82E-4E2C-B304-7EB4F675BBF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="278" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AA$111</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -479,10 +479,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7778,8 +7782,8 @@
   <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z10" sqref="Z10"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -12866,8 +12870,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="21">
-        <f>VLOOKUP(A70,[1]TDSheet!$A:$K,11,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="4"/>
